--- a/计算机应用基础/第4章excel/图表/图表练习.xlsx
+++ b/计算机应用基础/第4章excel/图表/图表练习.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr updateLinks="never"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wx\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680"/>
   </bookViews>
@@ -29,30 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
-  <si>
-    <t>1、合并计算，按产品小类求总金额和每个月的金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、合并计算，按产品系列求总金额和每个月的金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>产品小类</t>
   </si>
   <si>
     <t>金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一月金额</t>
-  </si>
-  <si>
-    <t>二月金额</t>
-  </si>
-  <si>
-    <t>三月金额</t>
   </si>
   <si>
     <t>产品系列</t>
@@ -87,10 +75,6 @@
   </si>
   <si>
     <t>系列B-3</t>
-  </si>
-  <si>
-    <t>2、合并计算，按销售日期求销售金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>销售日期</t>
@@ -131,15 +115,27 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>销售日期，金额表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品系列，金额表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品小类，金额表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -221,6 +217,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -231,12 +251,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,6 +279,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -268,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,9 +333,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -306,6 +343,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,7 +376,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -354,7 +403,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="24"/>
+            <c:explosion val="32"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -366,7 +415,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-32CD-428B-BDE9-74EBC647216B}"/>
               </c:ext>
@@ -386,7 +435,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-32CD-428B-BDE9-74EBC647216B}"/>
               </c:ext>
@@ -444,7 +493,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
               </c:ext>
@@ -473,7 +522,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-32CD-428B-BDE9-74EBC647216B}"/>
             </c:ext>
@@ -537,7 +586,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -608,7 +657,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-765F-4FF4-8C6D-D68182661BE5}"/>
             </c:ext>
@@ -784,7 +833,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -849,7 +898,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6407-431E-A218-D40B0252CAB2}"/>
             </c:ext>
@@ -1023,7 +1072,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1589,7 +1638,7 @@
             </c:numLit>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A733-4DED-A840-C5B392F89F2B}"/>
             </c:ext>
@@ -1603,7 +1652,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="133812224"/>
         <c:axId val="133813760"/>
@@ -4530,7 +4578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4538,10 +4586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4552,990 +4600,850 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>35068</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>6</v>
+      <c r="H3" s="4">
+        <v>170366</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>35068</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
-        <v>12039</v>
-      </c>
-      <c r="G4" s="4">
-        <v>12378</v>
+        <v>31001</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="4">
-        <v>10651</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>170366</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4">
-        <v>42133</v>
-      </c>
-      <c r="P4" s="4">
-        <v>55740</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>72493</v>
+        <v>985806</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
-        <v>31001</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10618</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8961</v>
-      </c>
-      <c r="H5" s="4">
-        <v>11422</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="4">
-        <v>985806</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="4">
-        <v>295131</v>
-      </c>
-      <c r="P5" s="4">
-        <v>357482</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>333193</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>7764</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2572</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3591</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1601</v>
+        <v>96533</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>96533</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4">
-        <v>16904</v>
-      </c>
-      <c r="G7" s="4">
-        <v>30810</v>
-      </c>
-      <c r="H7" s="4">
-        <v>48819</v>
-      </c>
+        <v>398675</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>398675</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4">
-        <v>113740</v>
-      </c>
-      <c r="G8" s="4">
-        <v>160225</v>
-      </c>
-      <c r="H8" s="4">
-        <v>124710</v>
-      </c>
+        <v>118228</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>118228</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4">
-        <v>33708</v>
-      </c>
-      <c r="G9" s="4">
-        <v>70190</v>
-      </c>
-      <c r="H9" s="4">
-        <v>14330</v>
-      </c>
+        <v>468903</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
-        <v>468903</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4">
-        <v>147683</v>
-      </c>
-      <c r="G10" s="4">
-        <v>127067</v>
-      </c>
-      <c r="H10" s="4">
-        <v>194153</v>
-      </c>
+      <c r="C10" s="14"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13296</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="5">
+        <v>42737</v>
+      </c>
+      <c r="C13" s="4">
+        <v>18820</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>42736</v>
+        <v>42738</v>
       </c>
       <c r="C14" s="4">
-        <v>13296</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+        <v>3220</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>42737</v>
+        <v>42739</v>
       </c>
       <c r="C15" s="4">
-        <v>18820</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+        <v>41560</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>42738</v>
+        <v>42740</v>
       </c>
       <c r="C16" s="4">
-        <v>3220</v>
+        <v>15416</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>42739</v>
+        <v>42741</v>
       </c>
       <c r="C17" s="4">
-        <v>41560</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>42740</v>
+        <v>42742</v>
       </c>
       <c r="C18" s="4">
-        <v>15416</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>42741</v>
+        <v>42744</v>
       </c>
       <c r="C19" s="4">
-        <v>10629</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
-        <v>42742</v>
+        <v>42745</v>
       </c>
       <c r="C20" s="4">
-        <v>1080</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
-        <v>42744</v>
+        <v>42746</v>
       </c>
       <c r="C21" s="4">
-        <v>45005</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <v>42745</v>
+        <v>42747</v>
       </c>
       <c r="C22" s="4">
-        <v>256</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
-        <v>42746</v>
+        <v>42748</v>
       </c>
       <c r="C23" s="4">
-        <v>521</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
-        <v>42747</v>
+        <v>42749</v>
       </c>
       <c r="C24" s="4">
-        <v>711</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <v>42748</v>
+        <v>42750</v>
       </c>
       <c r="C25" s="4">
-        <v>8319</v>
+        <v>24081</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <v>42749</v>
+        <v>42751</v>
       </c>
       <c r="C26" s="4">
-        <v>3739</v>
+        <v>32259</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
-        <v>42750</v>
+        <v>42752</v>
       </c>
       <c r="C27" s="4">
-        <v>24081</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
-        <v>42751</v>
+        <v>42753</v>
       </c>
       <c r="C28" s="4">
-        <v>32259</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
-        <v>42752</v>
+        <v>42754</v>
       </c>
       <c r="C29" s="4">
-        <v>9670</v>
+        <v>14187</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
-        <v>42753</v>
+        <v>42755</v>
       </c>
       <c r="C30" s="4">
-        <v>8157</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <v>42754</v>
+        <v>42756</v>
       </c>
       <c r="C31" s="4">
-        <v>14187</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <v>42755</v>
+        <v>42758</v>
       </c>
       <c r="C32" s="4">
-        <v>2380</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
-        <v>42756</v>
+        <v>42759</v>
       </c>
       <c r="C33" s="4">
-        <v>8138</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
-        <v>42758</v>
+        <v>42761</v>
       </c>
       <c r="C34" s="4">
-        <v>8392</v>
+        <v>39589</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <v>42759</v>
+        <v>42762</v>
       </c>
       <c r="C35" s="4">
-        <v>2861</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <v>42761</v>
+        <v>42764</v>
       </c>
       <c r="C36" s="4">
-        <v>39589</v>
+        <v>23345</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <v>42762</v>
+        <v>42765</v>
       </c>
       <c r="C37" s="4">
-        <v>1007</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
-        <v>42764</v>
+        <v>42766</v>
       </c>
       <c r="C38" s="4">
-        <v>23345</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
-        <v>42765</v>
+        <v>42767</v>
       </c>
       <c r="C39" s="4">
-        <v>599</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
-        <v>42766</v>
+        <v>42768</v>
       </c>
       <c r="C40" s="4">
-        <v>27</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
-        <v>42767</v>
+        <v>42769</v>
       </c>
       <c r="C41" s="4">
-        <v>18112</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
-        <v>42768</v>
+        <v>42770</v>
       </c>
       <c r="C42" s="4">
-        <v>9904</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
-        <v>42769</v>
+        <v>42771</v>
       </c>
       <c r="C43" s="4">
-        <v>10908</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
-        <v>42770</v>
+        <v>42772</v>
       </c>
       <c r="C44" s="4">
-        <v>27006</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
-        <v>42771</v>
+        <v>42773</v>
       </c>
       <c r="C45" s="4">
-        <v>6740</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="C46" s="4">
-        <v>5446</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
-        <v>42773</v>
+        <v>42775</v>
       </c>
       <c r="C47" s="4">
-        <v>10693</v>
+        <v>12661</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
-        <v>42774</v>
+        <v>42776</v>
       </c>
       <c r="C48" s="4">
-        <v>1939</v>
+        <v>15649</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
-        <v>42775</v>
+        <v>42777</v>
       </c>
       <c r="C49" s="4">
-        <v>12661</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
-        <v>42776</v>
+        <v>42778</v>
       </c>
       <c r="C50" s="4">
-        <v>15649</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
-        <v>42777</v>
+        <v>42779</v>
       </c>
       <c r="C51" s="4">
-        <v>1333</v>
+        <v>59004</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
-        <v>42778</v>
+        <v>42780</v>
       </c>
       <c r="C52" s="4">
-        <v>127</v>
+        <v>24005</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
-        <v>42779</v>
+        <v>42781</v>
       </c>
       <c r="C53" s="4">
-        <v>59004</v>
+        <v>19683</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
-        <v>42780</v>
+        <v>42782</v>
       </c>
       <c r="C54" s="4">
-        <v>24005</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
-        <v>42781</v>
+        <v>42783</v>
       </c>
       <c r="C55" s="4">
-        <v>19683</v>
+        <v>15938</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
-        <v>42782</v>
+        <v>42784</v>
       </c>
       <c r="C56" s="4">
-        <v>377</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
-        <v>42783</v>
+        <v>42785</v>
       </c>
       <c r="C57" s="4">
-        <v>15938</v>
+        <v>32794</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="5">
-        <v>42784</v>
+        <v>42786</v>
       </c>
       <c r="C58" s="4">
-        <v>20007</v>
+        <v>20378</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
-        <v>42785</v>
+        <v>42787</v>
       </c>
       <c r="C59" s="4">
-        <v>32794</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
-        <v>42786</v>
+        <v>42788</v>
       </c>
       <c r="C60" s="4">
-        <v>20378</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="5">
-        <v>42787</v>
+        <v>42789</v>
       </c>
       <c r="C61" s="4">
-        <v>1122</v>
+        <v>24096</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="5">
-        <v>42788</v>
+        <v>42790</v>
       </c>
       <c r="C62" s="4">
-        <v>1974</v>
+        <v>11460</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="5">
-        <v>42789</v>
+        <v>42791</v>
       </c>
       <c r="C63" s="4">
-        <v>24096</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
-        <v>42790</v>
+        <v>42792</v>
       </c>
       <c r="C64" s="4">
-        <v>11460</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="5">
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="C65" s="4">
-        <v>5239</v>
+        <v>17086</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="5">
-        <v>42792</v>
+        <v>42794</v>
       </c>
       <c r="C66" s="4">
-        <v>686</v>
+        <v>38855</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="5">
-        <v>42793</v>
+        <v>42795</v>
       </c>
       <c r="C67" s="4">
-        <v>17086</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
-        <v>42794</v>
+        <v>42796</v>
       </c>
       <c r="C68" s="4">
-        <v>38855</v>
+        <v>31534</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="5">
-        <v>42795</v>
+        <v>42797</v>
       </c>
       <c r="C69" s="4">
-        <v>2203</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
-        <v>42796</v>
+        <v>42798</v>
       </c>
       <c r="C70" s="4">
-        <v>31534</v>
+        <v>9676</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
-        <v>42797</v>
+        <v>42799</v>
       </c>
       <c r="C71" s="4">
-        <v>8466</v>
+        <v>35708</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
-        <v>42798</v>
+        <v>42800</v>
       </c>
       <c r="C72" s="4">
-        <v>9676</v>
+        <v>13657</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
-        <v>42799</v>
+        <v>42801</v>
       </c>
       <c r="C73" s="4">
-        <v>35708</v>
+        <v>25580</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
-        <v>42800</v>
+        <v>42802</v>
       </c>
       <c r="C74" s="4">
-        <v>13657</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
-        <v>42801</v>
+        <v>42803</v>
       </c>
       <c r="C75" s="4">
-        <v>25580</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
-        <v>42802</v>
+        <v>42804</v>
       </c>
       <c r="C76" s="4">
-        <v>8598</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
-        <v>42803</v>
+        <v>42805</v>
       </c>
       <c r="C77" s="4">
-        <v>2963</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
-        <v>42804</v>
+        <v>42806</v>
       </c>
       <c r="C78" s="4">
-        <v>1558</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
-        <v>42805</v>
+        <v>42807</v>
       </c>
       <c r="C79" s="4">
-        <v>73</v>
+        <v>30940</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
-        <v>42806</v>
+        <v>42808</v>
       </c>
       <c r="C80" s="4">
-        <v>2051</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
-        <v>42807</v>
+        <v>42809</v>
       </c>
       <c r="C81" s="4">
-        <v>30940</v>
+        <v>14619</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
-        <v>42808</v>
+        <v>42810</v>
       </c>
       <c r="C82" s="4">
-        <v>7781</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
-        <v>42809</v>
+        <v>42811</v>
       </c>
       <c r="C83" s="4">
-        <v>14619</v>
+        <v>16084</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
-        <v>42810</v>
+        <v>42812</v>
       </c>
       <c r="C84" s="4">
-        <v>2781</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
-        <v>42811</v>
+        <v>42813</v>
       </c>
       <c r="C85" s="4">
-        <v>16084</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="C86" s="4">
-        <v>5978</v>
+        <v>25293</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
-        <v>42813</v>
+        <v>42815</v>
       </c>
       <c r="C87" s="4">
-        <v>7663</v>
+        <v>905</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
-        <v>42814</v>
+        <v>42816</v>
       </c>
       <c r="C88" s="4">
-        <v>25293</v>
+        <v>991</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
-        <v>42815</v>
+        <v>42817</v>
       </c>
       <c r="C89" s="4">
-        <v>905</v>
+        <v>49735</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
-        <v>42816</v>
+        <v>42818</v>
       </c>
       <c r="C90" s="4">
-        <v>991</v>
+        <v>8769</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="5">
-        <v>42817</v>
+        <v>42819</v>
       </c>
       <c r="C91" s="4">
-        <v>49735</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5">
-        <v>42818</v>
+        <v>42820</v>
       </c>
       <c r="C92" s="4">
-        <v>8769</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="5">
-        <v>42819</v>
+        <v>42821</v>
       </c>
       <c r="C93" s="4">
-        <v>545</v>
+        <v>38127</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="5">
-        <v>42820</v>
+        <v>42822</v>
       </c>
       <c r="C94" s="4">
-        <v>5381</v>
+        <v>24688</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="5">
-        <v>42821</v>
+        <v>42823</v>
       </c>
       <c r="C95" s="4">
-        <v>38127</v>
+        <v>21195</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="5">
-        <v>42822</v>
+        <v>42824</v>
       </c>
       <c r="C96" s="4">
-        <v>24688</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="5">
-        <v>42823</v>
+        <v>42825</v>
       </c>
       <c r="C97" s="4">
-        <v>21195</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="5">
-        <v>42824</v>
-      </c>
-      <c r="C98" s="4">
-        <v>1767</v>
-      </c>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="5">
-        <v>42825</v>
-      </c>
-      <c r="C99" s="4">
-        <v>377</v>
-      </c>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
@@ -5587,12 +5495,6 @@
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -5603,10 +5505,10 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="J11:M15"/>
+    <mergeCell ref="J7:M11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5619,7 +5521,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5630,26 +5532,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12"/>
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="7">
         <v>1156172</v>
       </c>
